--- a/WinbackComp2025.xlsx
+++ b/WinbackComp2025.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -27,16 +27,19 @@
     <t>Targets</t>
   </si>
   <si>
-    <t xml:space="preserve"> Min-Multipliers</t>
+    <t>Min-Multipliers</t>
   </si>
   <si>
-    <t xml:space="preserve"> Max-Multipliers</t>
+    <t>Max-Multipliers</t>
   </si>
   <si>
     <t>Min-Base</t>
   </si>
   <si>
     <t>Max-Base</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>MP</t>
@@ -102,14 +105,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -134,15 +137,18 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -435,22 +441,25 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
         <v>18.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1.68</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>1.98</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>30.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>60.0</v>
       </c>
       <c r="H2" s="1"/>
@@ -475,22 +484,25 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
         <v>1.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>1.95</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1.95</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>15.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>15.0</v>
       </c>
       <c r="H3" s="1"/>
@@ -515,22 +527,25 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
         <v>1.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2.02</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2.02</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>160.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>160.0</v>
       </c>
       <c r="H4" s="1"/>
@@ -555,22 +570,25 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
         <v>4.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>3.18</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>3.18</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>30.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>30.0</v>
       </c>
       <c r="H5" s="1"/>
@@ -595,22 +613,25 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
         <v>1.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>1.37</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>1.37</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>70.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>70.0</v>
       </c>
       <c r="H6" s="1"/>
@@ -635,22 +656,25 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
         <v>1.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>4.86</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>4.86</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>15.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>15.0</v>
       </c>
       <c r="H7" s="1"/>
@@ -675,22 +699,25 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+      <c r="A8" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>1.5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>1.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>30.0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>30.0</v>
       </c>
       <c r="H8" s="1"/>
@@ -715,22 +742,25 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="3" t="s">
-        <v>14</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>3.0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>3.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>17.0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>17.0</v>
       </c>
       <c r="H9" s="1"/>
@@ -28554,162 +28584,186 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
         <v>18.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1.74</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>2.04</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>30.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>60.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
         <v>1.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>2.01</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>2.01</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>15.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>15.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
         <v>1.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2.06</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2.06</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>160.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>160.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
         <v>3.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>3.28</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>3.28</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>30.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>30.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
         <v>1.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>1.41</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>1.41</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>70.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>70.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>12</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
         <v>1.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>5.01</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>5.01</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>15.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>15.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
+      <c r="A8" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>1.5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>1.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>30.0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>30.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="6" t="s">
-        <v>14</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>3.0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>3.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>17.0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>17.0</v>
       </c>
     </row>
@@ -32748,209 +32802,209 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>41.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.84</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>1.11</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>30.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>60.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="F3" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="F4" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
         <v>2.0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.93</v>
+      <c r="D9" s="5">
+        <v>0.44</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.93</v>
+      <c r="E9" s="5">
+        <v>0.44</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F9" s="6">
         <v>15.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G9" s="6">
         <v>15.0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="F4" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F9" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
         <v>6.0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>0.42</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.42</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>17.0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>17.0</v>
       </c>
     </row>
@@ -36985,209 +37039,209 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>31.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.84</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1.11</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>30.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>60.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="F3" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="F4" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
-        <v>2.0</v>
+      <c r="C8" s="5">
+        <v>1.0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.93</v>
+      <c r="D8" s="5">
+        <v>0.9</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.93</v>
+      <c r="E8" s="5">
+        <v>0.9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F8" s="6">
         <v>15.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G8" s="6">
         <v>15.0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
         <v>3.0</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="F4" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F9" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>0.42</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.42</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>17.0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>17.0</v>
       </c>
     </row>
@@ -41222,238 +41276,238 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>31.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.94</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>1.21</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>30.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>60.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F3" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
         <v>2.0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.94</v>
+      <c r="D6" s="5">
+        <v>0.44</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.94</v>
+      <c r="E6" s="5">
+        <v>0.44</v>
       </c>
-      <c r="F3" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="F6" s="6">
         <v>15.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G6" s="6">
         <v>15.0</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="F7" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D8" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="F8" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="5">
         <v>0.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E9" s="5">
         <v>0.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F9" s="6">
         <v>30.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G9" s="6">
         <v>30.0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F6" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="F7" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C10" s="5">
         <v>0.0</v>
       </c>
-      <c r="D8" s="4">
-        <v>1.21</v>
+      <c r="D10" s="5">
+        <v>0.5</v>
       </c>
-      <c r="E8" s="4">
-        <v>1.21</v>
+      <c r="E10" s="5">
+        <v>0.5</v>
       </c>
-      <c r="F8" s="5">
-        <v>50.0</v>
+      <c r="F10" s="5">
+        <v>70.0</v>
       </c>
-      <c r="G8" s="5">
-        <v>50.0</v>
+      <c r="G10" s="5">
+        <v>70.0</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
         <v>0.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D11" s="5">
         <v>0.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E11" s="5">
         <v>0.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="5">
         <v>30.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G11" s="5">
         <v>30.0</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>30.0</v>
-      </c>
-    </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -45480,238 +45534,238 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>41.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.94</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>1.21</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>30.0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>105.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F3" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
         <v>2.0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.94</v>
+      <c r="D6" s="5">
+        <v>0.44</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.94</v>
+      <c r="E6" s="5">
+        <v>0.44</v>
       </c>
-      <c r="F3" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="F6" s="6">
         <v>15.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G6" s="6">
         <v>15.0</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="F7" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D8" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="F8" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="5">
         <v>0.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E9" s="5">
         <v>0.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F9" s="6">
         <v>30.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G9" s="6">
         <v>30.0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F6" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="F7" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C10" s="5">
         <v>0.0</v>
       </c>
-      <c r="D8" s="4">
-        <v>1.21</v>
+      <c r="D10" s="5">
+        <v>0.5</v>
       </c>
-      <c r="E8" s="4">
-        <v>1.21</v>
+      <c r="E10" s="5">
+        <v>0.5</v>
       </c>
-      <c r="F8" s="5">
-        <v>50.0</v>
+      <c r="F10" s="5">
+        <v>70.0</v>
       </c>
-      <c r="G8" s="5">
-        <v>50.0</v>
+      <c r="G10" s="5">
+        <v>70.0</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
         <v>0.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D11" s="5">
         <v>0.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E11" s="5">
         <v>0.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="5">
         <v>30.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G11" s="5">
         <v>30.0</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>30.0</v>
-      </c>
-    </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
